--- a/src/_8x8x8_lue_LED_cube_V1.00/字幕模板.xlsx
+++ b/src/_8x8x8_lue_LED_cube_V1.00/字幕模板.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{96E2065E-57C7-4A56-8DF9-53591AB5D466}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9401A6F5-5139-445C-8080-E8646EBEEF3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3744" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,7 +366,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56:M60"/>
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1973,8 +1973,8 @@
       <c r="B56" s="1">
         <v>1</v>
       </c>
-      <c r="C56" s="1">
-        <v>1</v>
+      <c r="C56" s="2">
+        <v>0</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="L56" t="str">
         <f t="shared" si="6"/>
-        <v>B11111011</v>
+        <v>B11011011</v>
       </c>
       <c r="M56" t="str">
         <f>"B"&amp;B55&amp;B56&amp;B57&amp;B58&amp;B59&amp;B60&amp;B61&amp;B62</f>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="M57" t="str">
         <f>"B"&amp;C55&amp;C56&amp;C57&amp;C58&amp;C59&amp;C60&amp;C61&amp;C62</f>
-        <v>B01111111</v>
+        <v>B00111111</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
